--- a/$TWTR.xlsx
+++ b/$TWTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5832DD68-8703-404A-8533-6564E88D06A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75F7089-E50C-4B44-B725-17718CABF318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32900" windowHeight="17920" xr2:uid="{FF813251-78E9-485A-8D56-D6407F3B4B49}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="32895" windowHeight="17925" xr2:uid="{FF813251-78E9-485A-8D56-D6407F3B4B49}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>$TWTR</t>
   </si>
@@ -307,6 +297,9 @@
   </si>
   <si>
     <t>Other LTL</t>
+  </si>
+  <si>
+    <t>$TWTR takeover deal closes October 28 2022 at $54.42 per share @ total of $44bn</t>
   </si>
 </sst>
 </file>
@@ -616,15 +609,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -654,7 +647,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2781300" y="161925"/>
+          <a:off x="2686050" y="38100"/>
           <a:ext cx="704850" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1082,26 +1075,26 @@
   <dimension ref="B2:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:N33"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H4" s="37" t="s">
         <v>75</v>
       </c>
@@ -1115,17 +1108,17 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="39"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="39"/>
       <c r="H5" s="28">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
@@ -1136,7 +1129,7 @@
       <c r="P5" s="24"/>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1155,7 +1148,7 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="26"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1165,8 +1158,12 @@
       <c r="D7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="24"/>
+      <c r="H7" s="28">
+        <v>44743</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -1176,7 +1173,7 @@
       <c r="P7" s="24"/>
       <c r="Q7" s="26"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1193,7 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1207,18 +1204,18 @@
       <c r="D9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H9" s="30"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="27"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1229,18 +1226,8 @@
       <c r="D10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1251,18 +1238,8 @@
       <c r="D11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="26"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1271,59 +1248,15 @@
         <v>27111.693800000001</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="26"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="H13" s="29"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="26"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="H14" s="29"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="26"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="26"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
@@ -1331,18 +1264,8 @@
         <v>77</v>
       </c>
       <c r="D16" s="36"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="26"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
@@ -1350,25 +1273,15 @@
         <v>78</v>
       </c>
       <c r="D17" s="34"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="27"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="39"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>14</v>
       </c>
@@ -1377,7 +1290,7 @@
       </c>
       <c r="D23" s="36"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
@@ -1386,17 +1299,17 @@
       </c>
       <c r="D24" s="36"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="C25" s="35"/>
       <c r="D25" s="36"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="35"/>
       <c r="D26" s="36"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
@@ -1432,20 +1345,20 @@
   <dimension ref="B1:AC56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48:I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="13" t="s">
         <v>61</v>
       </c>
@@ -1516,7 +1429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:29" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:29" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="E2" s="23">
         <v>44286</v>
@@ -1525,7 +1438,7 @@
         <v>44651</v>
       </c>
     </row>
-    <row r="3" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +1449,7 @@
         <v>1200.9839999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1547,7 +1460,7 @@
         <v>507.45</v>
       </c>
     </row>
-    <row r="5" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
@@ -1560,7 +1473,7 @@
         <v>693.53399999999988</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1571,7 +1484,7 @@
         <v>371.69499999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1582,7 +1495,7 @@
         <v>299.80900000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1593,7 +1506,7 @@
         <v>149.863</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1606,7 +1519,7 @@
         <v>821.36699999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1619,7 +1532,7 @@
         <v>-127.83300000000008</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
@@ -1630,7 +1543,7 @@
         <v>15.444000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1641,7 +1554,7 @@
         <v>7.9619999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1653,7 +1566,7 @@
         <v>963.96800000000007</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1666,7 +1579,7 @@
         <v>828.65300000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1677,7 +1590,7 @@
         <v>315.36700000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
@@ -1691,7 +1604,7 @@
       </c>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1709,7 +1622,7 @@
         <v>0.65895701449539568</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1725,7 +1638,7 @@
         <v>778.93700000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1734,12 +1647,12 @@
         <v>0.15923082417486945</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
@@ -1752,7 +1665,7 @@
         <v>0.57747147339181859</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1765,7 +1678,7 @@
         <v>-0.10644021902040335</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
@@ -1778,7 +1691,7 @@
         <v>0.4273878752756074</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1791,16 +1704,16 @@
         <v>0.26259050911585835</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E27" s="16"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1721,7 @@
         <v>2283.308</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
@@ -1816,7 +1729,7 @@
         <v>3978.645</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1825,7 +1738,7 @@
         <v>948.12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1833,7 +1746,7 @@
         <v>265.97300000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1841,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1850,7 +1763,7 @@
         <v>7476.0459999999994</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1858,7 +1771,7 @@
         <v>2150.5810000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
@@ -1866,7 +1779,7 @@
         <v>1272.4349999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1878,7 +1791,7 @@
         <v>1358.1849999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
@@ -1886,7 +1799,7 @@
         <v>941.88300000000004</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
@@ -1894,7 +1807,7 @@
         <v>351.803</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
@@ -1903,7 +1816,7 @@
         <v>13550.932999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>79</v>
       </c>
@@ -1911,7 +1824,7 @@
         <v>189.524</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>80</v>
       </c>
@@ -1919,7 +1832,7 @@
         <v>738.77800000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>81</v>
       </c>
@@ -1927,7 +1840,7 @@
         <v>208.405</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
@@ -1936,7 +1849,7 @@
         <v>1136.7070000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>83</v>
       </c>
@@ -1944,7 +1857,7 @@
         <v>3561.067</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>84</v>
       </c>
@@ -1952,7 +1865,7 @@
         <v>1683.114</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>81</v>
       </c>
@@ -1960,7 +1873,7 @@
         <v>1173.8789999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>85</v>
       </c>
@@ -1968,7 +1881,7 @@
         <v>41.226999999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>89</v>
       </c>
@@ -1976,7 +1889,7 @@
         <v>50.046999999999997</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
@@ -1985,10 +1898,10 @@
         <v>7646.0410000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>87</v>
       </c>
@@ -1996,7 +1909,7 @@
         <v>5904.9160000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>88</v>
       </c>
@@ -2022,9 +1935,9 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
